--- a/genotypeMap_templates/YYMMDD_BX_genotypeMap_24WELL.xlsx
+++ b/genotypeMap_templates/YYMMDD_BX_genotypeMap_24WELL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francoiskroll/Dropbox/phd/utilities/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/francoiskroll/Dropbox/FramebyFrame/genotypeMap_templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E774D3CC-537E-7744-AAA1-0F44DE43187A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="48" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C4F3471-A86B-2F45-9887-B453880D212C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="33600" windowHeight="18940" xr2:uid="{ED68630C-B3B4-954B-A30D-3426C59A8FBE}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17180" xr2:uid="{ED68630C-B3B4-954B-A30D-3426C59A8FBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="33">
   <si>
     <t>A</t>
   </si>
@@ -314,6 +314,9 @@
   </si>
   <si>
     <t>The code will throw an error if you made any mistake. These names will become the group names in the genotype file.</t>
+  </si>
+  <si>
+    <t>– Do not start a group name with a number. For example, use WT1 instead of 1WT.</t>
   </si>
 </sst>
 </file>
@@ -775,10 +778,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{437C1C92-2EB9-1F4F-88EA-AA3B05441A17}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="125" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="125" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.140625" defaultRowHeight="17" x14ac:dyDescent="0.25"/>
@@ -1015,6 +1018,11 @@
         <v>21</v>
       </c>
     </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
